--- a/doc/20_基本設計/画面系/【CMS】基本設計-画面一覧仕様書.xlsx
+++ b/doc/20_基本設計/画面系/【CMS】基本設計-画面一覧仕様書.xlsx
@@ -1,43 +1,374 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92a0b19d6ddffdcd/ドキュメント/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9530D93C-A5CA-494A-B79E-415E6DD1D356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="1" xr2:uid="{BADF3AFC-359F-48C3-A4B9-466E0810DAC4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表紙" sheetId="2" r:id="rId1"/>
+    <sheet name="変更履歴" sheetId="3" r:id="rId2"/>
+    <sheet name="画面一覧表" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">画面一覧表!$A$1:$F$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$X$25</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+      </rPr>
+      <t>プロジェクト：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+      </rPr>
+      <t xml:space="preserve">Certificate Management System
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+      </rPr>
+      <t>チーム：EB team a
+　作成日：20230411</t>
+    </r>
+  </si>
+  <si>
+    <t>項番</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初期作成</t>
+    <rPh sb="0" eb="4">
+      <t>ショキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EB team a</t>
+  </si>
+  <si>
+    <t>画面一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロジェクト：Certificate Management System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">機能：Certificate Management </t>
+  </si>
+  <si>
+    <t>作成者：EB team a</t>
+  </si>
+  <si>
+    <t>作成日：2023/4/11</t>
+  </si>
+  <si>
+    <t>画面ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面名称</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンメイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cms001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインが可能</t>
+    <rPh sb="5" eb="7">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cms002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員マイページ画面</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得済み資格、資格取得計画の確認が可能</t>
+  </si>
+  <si>
+    <t>cms003</t>
+  </si>
+  <si>
+    <t>資格取得計画画面</t>
+  </si>
+  <si>
+    <t>資格取得計画登録可能</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cms004</t>
+  </si>
+  <si>
+    <t>資格登録画面</t>
+  </si>
+  <si>
+    <t>資格名称の選択、試験結果の登録、証明書のアップロード</t>
+  </si>
+  <si>
+    <t>cms005</t>
+  </si>
+  <si>
+    <t>部下情報一覧表画面</t>
+  </si>
+  <si>
+    <t>部下情報一覧</t>
+  </si>
+  <si>
+    <t>cms006</t>
+  </si>
+  <si>
+    <t>人事用資格一覧画面</t>
+  </si>
+  <si>
+    <t>人事用資格一覧</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -45,15 +376,510 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="52">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -85,7 +911,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +923,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -114,7 +940,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +970,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +1022,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +1190,905 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18493310-14AC-4A9E-BE4C-49A2A3C08657}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="E6:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="5.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:20" ht="18.600000000000001" thickBot="1"/>
+    <row r="7" spans="5:20" ht="18.75">
+      <c r="E7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="5:20">
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="34"/>
+    </row>
+    <row r="9" spans="5:20">
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34"/>
+    </row>
+    <row r="10" spans="5:20">
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34"/>
+    </row>
+    <row r="11" spans="5:20">
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34"/>
+    </row>
+    <row r="12" spans="5:20">
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
+    </row>
+    <row r="13" spans="5:20">
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
+    </row>
+    <row r="14" spans="5:20">
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
+    </row>
+    <row r="15" spans="5:20">
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34"/>
+    </row>
+    <row r="16" spans="5:20">
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34"/>
+    </row>
+    <row r="17" spans="5:20">
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
+    </row>
+    <row r="18" spans="5:20">
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
+    </row>
+    <row r="19" spans="5:20" ht="18.600000000000001" thickBot="1">
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E7:T19"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EE29A4-42D2-4C87-8B18-C075A0F74BA6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" ht="24.4" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="8"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="4"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="4"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="4"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="4"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="4"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="4"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="4"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="4"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="4"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A28338-DB2B-43ED-842B-6EE8F161FBE6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:F40"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="12" customWidth="1"/>
+    <col min="5" max="5" width="47.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="13.9" thickBot="1"/>
+    <row r="2" spans="2:6" ht="37.15" customHeight="1">
+      <c r="B2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+    </row>
+    <row r="3" spans="2:6" ht="38.65" customHeight="1" thickBot="1">
+      <c r="B3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="13.15" customHeight="1" thickBot="1">
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="2:6" ht="18" customHeight="1">
+      <c r="B5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18" customHeight="1" thickBot="1">
+      <c r="B6" s="44"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="2:6" ht="13.5">
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:6" ht="13.5">
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:6" ht="13.5">
+      <c r="B9" s="17">
+        <v>3</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" ht="13.5">
+      <c r="B10" s="17">
+        <v>4</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:6" ht="13.5">
+      <c r="B11" s="17">
+        <v>5</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="2:6" ht="13.5">
+      <c r="B12" s="17">
+        <v>6</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="17"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="2:6" ht="13.9" thickBot="1">
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/20_基本設計/画面系/【CMS】基本設計-画面一覧仕様書.xlsx
+++ b/doc/20_基本設計/画面系/【CMS】基本設計-画面一覧仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92a0b19d6ddffdcd/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92a0b19d6ddffdcd/ドキュメント/GitHub/certificate-online/doc/20_基本設計/画面系/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9530D93C-A5CA-494A-B79E-415E6DD1D356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9530D93C-A5CA-494A-B79E-415E6DD1D356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD1F269-5A21-4211-A3EA-7953160084D7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="1" xr2:uid="{BADF3AFC-359F-48C3-A4B9-466E0810DAC4}"/>
+    <workbookView xWindow="864" yWindow="1152" windowWidth="19476" windowHeight="10824" firstSheet="2" activeTab="1" xr2:uid="{BADF3AFC-359F-48C3-A4B9-466E0810DAC4}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -49,6 +49,8 @@
         <sz val="36"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>プロジェクト：</t>
     </r>
@@ -57,6 +59,8 @@
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Certificate Management System
 </t>
@@ -66,6 +70,8 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>チーム：EB team a
 　作成日：20230411</t>
@@ -336,16 +342,22 @@
       <sz val="36"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -808,6 +820,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -873,9 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,7 +907,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1200,247 +1212,247 @@
       <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="5.8984375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="5.875" style="1"/>
+    <col min="1" max="16384" width="5.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:20" ht="18.600000000000001" thickBot="1"/>
-    <row r="7" spans="5:20" ht="18.75">
-      <c r="E7" s="29" t="s">
+    <row r="7" spans="5:20">
+      <c r="E7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="5:20">
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
     </row>
     <row r="9" spans="5:20">
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="34"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
     </row>
     <row r="10" spans="5:20">
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
     </row>
     <row r="11" spans="5:20">
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
     </row>
     <row r="12" spans="5:20">
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
     </row>
     <row r="13" spans="5:20">
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35"/>
     </row>
     <row r="14" spans="5:20">
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
     </row>
     <row r="15" spans="5:20">
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="35"/>
     </row>
     <row r="16" spans="5:20">
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
     </row>
     <row r="17" spans="5:20">
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
     </row>
     <row r="18" spans="5:20">
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="35"/>
     </row>
     <row r="19" spans="5:20" ht="18.600000000000001" thickBot="1">
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="37"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1457,23 +1469,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F32"/>
+  <dimension ref="B2:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="D45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="7"/>
+    <col min="1" max="1" width="2.69921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.69921875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" ht="24.4" customHeight="1">
+    <row r="2" spans="2:6" s="3" customFormat="1" ht="24.45" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1709,6 +1721,11 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
+    </row>
+    <row r="53" spans="13:13">
+      <c r="M53" s="7">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1728,32 +1745,32 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="13" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" style="13" customWidth="1"/>
     <col min="2" max="2" width="11" style="12" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="12" customWidth="1"/>
-    <col min="5" max="5" width="47.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="13"/>
+    <col min="4" max="4" width="24.69921875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="47.19921875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="13.9" thickBot="1"/>
-    <row r="2" spans="2:6" ht="37.15" customHeight="1">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="2:6" ht="13.8" thickBot="1"/>
+    <row r="2" spans="2:6" ht="37.200000000000003" customHeight="1">
+      <c r="B2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="2:6" ht="38.65" customHeight="1" thickBot="1">
-      <c r="B3" s="41" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="2:6" ht="38.700000000000003" customHeight="1" thickBot="1">
+      <c r="B3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="28" t="s">
         <v>11</v>
       </c>
@@ -1764,34 +1781,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="13.15" customHeight="1" thickBot="1">
+    <row r="4" spans="2:6" ht="13.2" customHeight="1" thickBot="1">
       <c r="B4" s="16"/>
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="44"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="50"/>
-    </row>
-    <row r="7" spans="2:6" ht="13.5">
+      <c r="B6" s="45"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="17">
         <v>1</v>
       </c>
@@ -1801,12 +1818,12 @@
       <c r="D7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="2:6" ht="13.5">
+    <row r="8" spans="2:6">
       <c r="B8" s="17">
         <v>2</v>
       </c>
@@ -1816,12 +1833,12 @@
       <c r="D8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="29" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="2:6" ht="13.5">
+    <row r="9" spans="2:6">
       <c r="B9" s="17">
         <v>3</v>
       </c>
@@ -1831,12 +1848,12 @@
       <c r="D9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="2:6" ht="13.5">
+    <row r="10" spans="2:6">
       <c r="B10" s="17">
         <v>4</v>
       </c>
@@ -1846,12 +1863,12 @@
       <c r="D10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="2:6" ht="13.5">
+    <row r="11" spans="2:6">
       <c r="B11" s="17">
         <v>5</v>
       </c>
@@ -1861,12 +1878,12 @@
       <c r="D11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="29" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="2:6" ht="13.5">
+    <row r="12" spans="2:6">
       <c r="B12" s="17">
         <v>6</v>
       </c>
@@ -1876,7 +1893,7 @@
       <c r="D12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="29" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="18"/>
@@ -2070,7 +2087,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="18"/>
     </row>
-    <row r="40" spans="2:6" ht="13.9" thickBot="1">
+    <row r="40" spans="2:6" ht="13.8" thickBot="1">
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
@@ -2089,6 +2106,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>